--- a/Config/HIV natural history parameters 12.11.19.xlsx
+++ b/Config/HIV natural history parameters 12.11.19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25310" windowHeight="10820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25305" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Params and sources" sheetId="1" r:id="rId1"/>
@@ -874,17 +874,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -893,11 +888,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10453,55 +10453,55 @@
                   <c:v>2.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.7999999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11624,20 +11624,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.4140625" customWidth="1"/>
-    <col min="10" max="16" width="7.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.9140625" customWidth="1"/>
-    <col min="18" max="30" width="7.6640625" customWidth="1"/>
+    <col min="3" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="16" width="7.625" customWidth="1"/>
+    <col min="17" max="17" width="13.875" customWidth="1"/>
+    <col min="18" max="30" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>26</v>
@@ -11658,7 +11660,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
@@ -11703,7 +11705,7 @@
       <c r="N4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="47" t="s">
+      <c r="P4" s="53" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="48"/>
@@ -11722,7 +11724,7 @@
       <c r="AD4" s="48"/>
       <c r="AE4" s="48"/>
     </row>
-    <row r="5" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
@@ -11776,7 +11778,7 @@
       <c r="AD5" s="48"/>
       <c r="AE5" s="48"/>
     </row>
-    <row r="6" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
@@ -11830,7 +11832,7 @@
       <c r="AD6" s="48"/>
       <c r="AE6" s="48"/>
     </row>
-    <row r="7" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
@@ -11872,7 +11874,7 @@
       <c r="AD7" s="48"/>
       <c r="AE7" s="48"/>
     </row>
-    <row r="8" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
@@ -11918,7 +11920,7 @@
       <c r="AD8" s="48"/>
       <c r="AE8" s="48"/>
     </row>
-    <row r="9" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
@@ -11972,7 +11974,7 @@
       <c r="AD9" s="48"/>
       <c r="AE9" s="48"/>
     </row>
-    <row r="10" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
@@ -12032,7 +12034,7 @@
       <c r="AD10" s="48"/>
       <c r="AE10" s="48"/>
     </row>
-    <row r="11" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>51</v>
       </c>
@@ -12092,7 +12094,7 @@
       <c r="AD11" s="48"/>
       <c r="AE11" s="48"/>
     </row>
-    <row r="12" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
@@ -12152,7 +12154,7 @@
       <c r="AD12" s="48"/>
       <c r="AE12" s="48"/>
     </row>
-    <row r="13" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="10" t="s">
         <v>53</v>
@@ -12213,7 +12215,7 @@
       <c r="AD13" s="48"/>
       <c r="AE13" s="48"/>
     </row>
-    <row r="14" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>54</v>
@@ -12274,7 +12276,7 @@
       <c r="AD14" s="48"/>
       <c r="AE14" s="48"/>
     </row>
-    <row r="15" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -12333,7 +12335,7 @@
       <c r="AD15" s="48"/>
       <c r="AE15" s="48"/>
     </row>
-    <row r="16" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
@@ -12351,7 +12353,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="1" t="s">
@@ -12380,7 +12382,7 @@
       <c r="AD16" s="48"/>
       <c r="AE16" s="48"/>
     </row>
-    <row r="17" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="21" t="s">
         <v>43</v>
@@ -12402,7 +12404,7 @@
       </c>
       <c r="G17" s="25">
         <f t="shared" si="7"/>
-        <v>2.0000000000000001E-4</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="3"/>
@@ -12429,7 +12431,7 @@
       <c r="AD17" s="48"/>
       <c r="AE17" s="48"/>
     </row>
-    <row r="18" spans="1:31" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
@@ -12464,8 +12466,8 @@
       <c r="AD18" s="48"/>
       <c r="AE18" s="48"/>
     </row>
-    <row r="19" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="27" t="s">
         <v>59</v>
@@ -12482,15 +12484,15 @@
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="51"/>
-    </row>
-    <row r="21" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
+    </row>
+    <row r="21" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
@@ -12506,7 +12508,7 @@
       <c r="J21" s="48"/>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="50" t="s">
         <v>64</v>
       </c>
       <c r="N21" s="48"/>
@@ -12514,14 +12516,14 @@
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="48"/>
@@ -12533,7 +12535,7 @@
       <c r="J22" s="48"/>
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
-      <c r="M22" s="53" t="s">
+      <c r="M22" s="50" t="s">
         <v>68</v>
       </c>
       <c r="N22" s="48"/>
@@ -12541,7 +12543,7 @@
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>65</v>
       </c>
@@ -12560,7 +12562,7 @@
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="53" t="s">
+      <c r="M23" s="50" t="s">
         <v>71</v>
       </c>
       <c r="N23" s="48"/>
@@ -12568,7 +12570,7 @@
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>65</v>
       </c>
@@ -12587,7 +12589,7 @@
       <c r="J24" s="48"/>
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
-      <c r="M24" s="53" t="s">
+      <c r="M24" s="50" t="s">
         <v>74</v>
       </c>
       <c r="N24" s="48"/>
@@ -12595,7 +12597,7 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="1" t="s">
         <v>75</v>
@@ -12612,13 +12614,13 @@
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
-      <c r="M25" s="53"/>
+      <c r="M25" s="50"/>
       <c r="N25" s="48"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>65</v>
       </c>
@@ -12637,7 +12639,7 @@
       <c r="J26" s="48"/>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
-      <c r="M26" s="53" t="s">
+      <c r="M26" s="50" t="s">
         <v>79</v>
       </c>
       <c r="N26" s="48"/>
@@ -12645,7 +12647,7 @@
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
     </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -12662,7 +12664,7 @@
       <c r="J27" s="48"/>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="50" t="s">
         <v>82</v>
       </c>
       <c r="N27" s="48"/>
@@ -12670,7 +12672,7 @@
       <c r="P27" s="48"/>
       <c r="Q27" s="48"/>
     </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>65</v>
       </c>
@@ -12689,7 +12691,7 @@
       <c r="J28" s="48"/>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="50" t="s">
         <v>85</v>
       </c>
       <c r="N28" s="48"/>
@@ -12697,14 +12699,14 @@
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="50" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="48"/>
@@ -12716,7 +12718,7 @@
       <c r="J29" s="48"/>
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="50" t="s">
         <v>88</v>
       </c>
       <c r="N29" s="48"/>
@@ -12724,14 +12726,14 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="48"/>
@@ -12743,7 +12745,7 @@
       <c r="J30" s="48"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
-      <c r="M30" s="53" t="s">
+      <c r="M30" s="50" t="s">
         <v>91</v>
       </c>
       <c r="N30" s="48"/>
@@ -12751,12 +12753,12 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
     </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="50" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="48"/>
@@ -12768,7 +12770,7 @@
       <c r="J31" s="48"/>
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="50" t="s">
         <v>94</v>
       </c>
       <c r="N31" s="48"/>
@@ -12776,7 +12778,7 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="3" t="s">
         <v>95</v>
@@ -12793,13 +12795,13 @@
       <c r="J32" s="48"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
-      <c r="M32" s="53"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="3" t="s">
         <v>97</v>
@@ -12816,20 +12818,20 @@
       <c r="J33" s="48"/>
       <c r="K33" s="48"/>
       <c r="L33" s="48"/>
-      <c r="M33" s="53"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="50" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="48"/>
@@ -12841,18 +12843,18 @@
       <c r="J34" s="48"/>
       <c r="K34" s="48"/>
       <c r="L34" s="48"/>
-      <c r="M34" s="53"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="48"/>
       <c r="O34" s="48"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="50" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="48"/>
@@ -12864,7 +12866,7 @@
       <c r="J35" s="48"/>
       <c r="K35" s="48"/>
       <c r="L35" s="48"/>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="50" t="s">
         <v>103</v>
       </c>
       <c r="N35" s="48"/>
@@ -12872,14 +12874,14 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="48"/>
@@ -12891,7 +12893,7 @@
       <c r="J36" s="48"/>
       <c r="K36" s="48"/>
       <c r="L36" s="48"/>
-      <c r="M36" s="53" t="s">
+      <c r="M36" s="50" t="s">
         <v>106</v>
       </c>
       <c r="N36" s="48"/>
@@ -12899,14 +12901,14 @@
       <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
     </row>
-    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="48"/>
@@ -12918,7 +12920,7 @@
       <c r="J37" s="48"/>
       <c r="K37" s="48"/>
       <c r="L37" s="48"/>
-      <c r="M37" s="53" t="s">
+      <c r="M37" s="50" t="s">
         <v>109</v>
       </c>
       <c r="N37" s="48"/>
@@ -12926,12 +12928,12 @@
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
     </row>
-    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28"/>
       <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D38" s="48"/>
@@ -12943,7 +12945,7 @@
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
-      <c r="M38" s="55" t="s">
+      <c r="M38" s="49" t="s">
         <v>112</v>
       </c>
       <c r="N38" s="48"/>
@@ -12951,14 +12953,14 @@
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
     </row>
-    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="49" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="48"/>
@@ -12970,7 +12972,7 @@
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
       <c r="L39" s="48"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="49" t="s">
         <v>115</v>
       </c>
       <c r="N39" s="48"/>
@@ -12978,14 +12980,14 @@
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
     </row>
-    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="48"/>
@@ -12997,7 +12999,7 @@
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
-      <c r="M40" s="55" t="s">
+      <c r="M40" s="49" t="s">
         <v>118</v>
       </c>
       <c r="N40" s="48"/>
@@ -13005,11 +13007,11 @@
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
     </row>
-    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="49" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="48"/>
@@ -13021,7 +13023,7 @@
       <c r="J41" s="48"/>
       <c r="K41" s="48"/>
       <c r="L41" s="48"/>
-      <c r="M41" s="55" t="s">
+      <c r="M41" s="49" t="s">
         <v>121</v>
       </c>
       <c r="N41" s="48"/>
@@ -13029,7 +13031,7 @@
       <c r="P41" s="48"/>
       <c r="Q41" s="48"/>
     </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>65</v>
       </c>
@@ -13048,7 +13050,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="55" t="s">
+      <c r="M42" s="49" t="s">
         <v>124</v>
       </c>
       <c r="N42" s="48"/>
@@ -13070,14 +13072,14 @@
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="49" t="s">
         <v>126</v>
       </c>
       <c r="D43" s="48"/>
@@ -13089,7 +13091,7 @@
       <c r="J43" s="48"/>
       <c r="K43" s="48"/>
       <c r="L43" s="48"/>
-      <c r="M43" s="55" t="s">
+      <c r="M43" s="49" t="s">
         <v>127</v>
       </c>
       <c r="N43" s="48"/>
@@ -13111,12 +13113,12 @@
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
     </row>
-    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="49" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="48"/>
@@ -13128,7 +13130,7 @@
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
       <c r="L44" s="48"/>
-      <c r="M44" s="55" t="s">
+      <c r="M44" s="49" t="s">
         <v>130</v>
       </c>
       <c r="N44" s="48"/>
@@ -13150,12 +13152,12 @@
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
     </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D45" s="48"/>
@@ -13167,7 +13169,7 @@
       <c r="J45" s="48"/>
       <c r="K45" s="48"/>
       <c r="L45" s="48"/>
-      <c r="M45" s="55" t="s">
+      <c r="M45" s="49" t="s">
         <v>133</v>
       </c>
       <c r="N45" s="48"/>
@@ -13189,12 +13191,12 @@
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
     </row>
-    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="49" t="s">
         <v>135</v>
       </c>
       <c r="D46" s="48"/>
@@ -13206,7 +13208,7 @@
       <c r="J46" s="48"/>
       <c r="K46" s="48"/>
       <c r="L46" s="48"/>
-      <c r="M46" s="55" t="s">
+      <c r="M46" s="49" t="s">
         <v>136</v>
       </c>
       <c r="N46" s="48"/>
@@ -13228,13 +13230,13 @@
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
     </row>
-    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>138</v>
       </c>
@@ -13269,31 +13271,31 @@
       <c r="AD49" s="35"/>
       <c r="AE49" s="35"/>
     </row>
-    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:31" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>140</v>
       </c>
@@ -13316,7 +13318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.1</v>
       </c>
@@ -13344,7 +13346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" ref="A72:A335" si="8">A71+0.05</f>
         <v>0.15000000000000002</v>
@@ -13373,7 +13375,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="8"/>
         <v>0.2</v>
@@ -13398,7 +13400,7 @@
         <f t="shared" si="10"/>
         <v>3.6000000000000003E-3</v>
       </c>
-      <c r="M73" s="56" t="s">
+      <c r="M73" s="47" t="s">
         <v>147</v>
       </c>
       <c r="N73" s="48"/>
@@ -13407,7 +13409,7 @@
       <c r="Q73" s="48"/>
       <c r="R73" s="48"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="8"/>
         <v>0.25</v>
@@ -13475,7 +13477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="8"/>
         <v>0.3</v>
@@ -13520,7 +13522,7 @@
       <c r="V75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="8"/>
         <v>0.35</v>
@@ -13567,7 +13569,7 @@
         <v>22.759613353482084</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="8"/>
         <v>0.39999999999999997</v>
@@ -13645,7 +13647,7 @@
         <v>22.360679774997898</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="8"/>
         <v>0.44999999999999996</v>
@@ -13723,7 +13725,7 @@
         <v>18.708286933869708</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="8"/>
         <v>0.49999999999999994</v>
@@ -13801,7 +13803,7 @@
         <v>14.142135623730951</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="8"/>
         <v>0.54999999999999993</v>
@@ -13831,7 +13833,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="8"/>
         <v>0.6</v>
@@ -13857,7 +13859,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="8"/>
         <v>0.65</v>
@@ -13882,7 +13884,7 @@
         <f t="shared" si="12"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="M82" s="56" t="s">
+      <c r="M82" s="47" t="s">
         <v>158</v>
       </c>
       <c r="N82" s="48"/>
@@ -13891,7 +13893,7 @@
       <c r="Q82" s="48"/>
       <c r="R82" s="48"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="8"/>
         <v>0.70000000000000007</v>
@@ -13959,7 +13961,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="8"/>
         <v>0.75000000000000011</v>
@@ -13996,7 +13998,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="8"/>
         <v>0.80000000000000016</v>
@@ -14038,7 +14040,7 @@
         <v>23.874672772626646</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="8"/>
         <v>0.8500000000000002</v>
@@ -14116,7 +14118,7 @@
         <v>22.360679774997898</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="8"/>
         <v>0.90000000000000024</v>
@@ -14194,7 +14196,7 @@
         <v>18.708286933869708</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="8"/>
         <v>0.95000000000000029</v>
@@ -14272,7 +14274,7 @@
         <v>14.142135623730951</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
@@ -14303,7 +14305,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="8"/>
         <v>1.0500000000000003</v>
@@ -14330,7 +14332,7 @@
       </c>
       <c r="S90" s="19"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="8"/>
         <v>1.1000000000000003</v>
@@ -14357,7 +14359,7 @@
       </c>
       <c r="M91" s="19"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="8"/>
         <v>1.1500000000000004</v>
@@ -14383,7 +14385,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="8"/>
         <v>1.2000000000000004</v>
@@ -14409,7 +14411,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="8"/>
         <v>1.2500000000000004</v>
@@ -14435,7 +14437,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="8"/>
         <v>1.3000000000000005</v>
@@ -14461,7 +14463,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="8"/>
         <v>1.3500000000000005</v>
@@ -14487,7 +14489,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="8"/>
         <v>1.4000000000000006</v>
@@ -14513,7 +14515,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="8"/>
         <v>1.4500000000000006</v>
@@ -14539,7 +14541,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="8"/>
         <v>1.5000000000000007</v>
@@ -14565,7 +14567,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="8"/>
         <v>1.5500000000000007</v>
@@ -14591,7 +14593,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="8"/>
         <v>1.6000000000000008</v>
@@ -14617,7 +14619,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="8"/>
         <v>1.6500000000000008</v>
@@ -14643,7 +14645,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="8"/>
         <v>1.7000000000000008</v>
@@ -14669,7 +14671,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="8"/>
         <v>1.7500000000000009</v>
@@ -14695,7 +14697,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="8"/>
         <v>1.8000000000000009</v>
@@ -14721,7 +14723,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="8"/>
         <v>1.850000000000001</v>
@@ -14747,7 +14749,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="8"/>
         <v>1.900000000000001</v>
@@ -14773,7 +14775,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="8"/>
         <v>1.9500000000000011</v>
@@ -14799,7 +14801,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="8"/>
         <v>2.0000000000000009</v>
@@ -14825,7 +14827,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="8"/>
         <v>2.0500000000000007</v>
@@ -14851,7 +14853,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="8"/>
         <v>2.1000000000000005</v>
@@ -14877,7 +14879,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="8"/>
         <v>2.1500000000000004</v>
@@ -14903,7 +14905,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
@@ -14929,7 +14931,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="8"/>
         <v>2.25</v>
@@ -14955,7 +14957,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
@@ -14981,7 +14983,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="8"/>
         <v>2.3499999999999996</v>
@@ -15007,7 +15009,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="8"/>
         <v>2.3999999999999995</v>
@@ -15033,7 +15035,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="8"/>
         <v>2.4499999999999993</v>
@@ -15059,7 +15061,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="8"/>
         <v>2.4999999999999991</v>
@@ -15085,7 +15087,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="8"/>
         <v>2.5499999999999989</v>
@@ -15111,7 +15113,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="8"/>
         <v>2.5999999999999988</v>
@@ -15137,7 +15139,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="8"/>
         <v>2.6499999999999986</v>
@@ -15163,7 +15165,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="8"/>
         <v>2.6999999999999984</v>
@@ -15189,7 +15191,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="8"/>
         <v>2.7499999999999982</v>
@@ -15215,7 +15217,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="8"/>
         <v>2.799999999999998</v>
@@ -15241,7 +15243,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="8"/>
         <v>2.8499999999999979</v>
@@ -15267,7 +15269,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="8"/>
         <v>2.8999999999999977</v>
@@ -15293,7 +15295,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="8"/>
         <v>2.9499999999999975</v>
@@ -15319,7 +15321,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="8"/>
         <v>2.9999999999999973</v>
@@ -15345,7 +15347,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="8"/>
         <v>3.0499999999999972</v>
@@ -15371,7 +15373,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="8"/>
         <v>3.099999999999997</v>
@@ -15397,7 +15399,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="8"/>
         <v>3.1499999999999968</v>
@@ -15423,7 +15425,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="8"/>
         <v>3.1999999999999966</v>
@@ -15449,7 +15451,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="8"/>
         <v>3.2499999999999964</v>
@@ -15475,7 +15477,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="8"/>
         <v>3.2999999999999963</v>
@@ -15501,7 +15503,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="8"/>
         <v>3.3499999999999961</v>
@@ -15527,7 +15529,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="8"/>
         <v>3.3999999999999959</v>
@@ -15553,7 +15555,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="8"/>
         <v>3.4499999999999957</v>
@@ -15579,7 +15581,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="8"/>
         <v>3.4999999999999956</v>
@@ -15605,7 +15607,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="8"/>
         <v>3.5499999999999954</v>
@@ -15631,7 +15633,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="8"/>
         <v>3.5999999999999952</v>
@@ -15657,7 +15659,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="8"/>
         <v>3.649999999999995</v>
@@ -15683,7 +15685,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="8"/>
         <v>3.6999999999999948</v>
@@ -15709,7 +15711,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="8"/>
         <v>3.7499999999999947</v>
@@ -15735,7 +15737,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="8"/>
         <v>3.7999999999999945</v>
@@ -15761,7 +15763,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="8"/>
         <v>3.8499999999999943</v>
@@ -15787,7 +15789,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="8"/>
         <v>3.8999999999999941</v>
@@ -15813,7 +15815,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="8"/>
         <v>3.949999999999994</v>
@@ -15839,7 +15841,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="8"/>
         <v>3.9999999999999938</v>
@@ -15865,7 +15867,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="8"/>
         <v>4.0499999999999936</v>
@@ -15891,7 +15893,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="8"/>
         <v>4.0999999999999934</v>
@@ -15917,7 +15919,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="8"/>
         <v>4.1499999999999932</v>
@@ -15943,7 +15945,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="8"/>
         <v>4.1999999999999931</v>
@@ -15969,7 +15971,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="8"/>
         <v>4.2499999999999929</v>
@@ -15995,7 +15997,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="8"/>
         <v>4.2999999999999927</v>
@@ -16021,7 +16023,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="8"/>
         <v>4.3499999999999925</v>
@@ -16047,7 +16049,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="8"/>
         <v>4.3999999999999924</v>
@@ -16073,7 +16075,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="8"/>
         <v>4.4499999999999922</v>
@@ -16099,7 +16101,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="8"/>
         <v>4.499999999999992</v>
@@ -16125,7 +16127,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="8"/>
         <v>4.5499999999999918</v>
@@ -16151,7 +16153,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="8"/>
         <v>4.5999999999999917</v>
@@ -16177,7 +16179,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="8"/>
         <v>4.6499999999999915</v>
@@ -16203,7 +16205,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="8"/>
         <v>4.6999999999999913</v>
@@ -16229,7 +16231,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="8"/>
         <v>4.7499999999999911</v>
@@ -16255,7 +16257,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="8"/>
         <v>4.7999999999999909</v>
@@ -16281,7 +16283,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="8"/>
         <v>4.8499999999999908</v>
@@ -16307,7 +16309,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="8"/>
         <v>4.8999999999999906</v>
@@ -16333,7 +16335,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="8"/>
         <v>4.9499999999999904</v>
@@ -16359,7 +16361,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="8"/>
         <v>4.9999999999999902</v>
@@ -16385,7 +16387,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="8"/>
         <v>5.0499999999999901</v>
@@ -16411,7 +16413,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="8"/>
         <v>5.0999999999999899</v>
@@ -16437,7 +16439,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="8"/>
         <v>5.1499999999999897</v>
@@ -16463,7 +16465,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="8"/>
         <v>5.1999999999999895</v>
@@ -16489,7 +16491,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="8"/>
         <v>5.2499999999999893</v>
@@ -16515,7 +16517,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="8"/>
         <v>5.2999999999999892</v>
@@ -16541,7 +16543,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="8"/>
         <v>5.349999999999989</v>
@@ -16567,7 +16569,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="8"/>
         <v>5.3999999999999888</v>
@@ -16593,7 +16595,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="8"/>
         <v>5.4499999999999886</v>
@@ -16619,7 +16621,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="8"/>
         <v>5.4999999999999885</v>
@@ -16645,7 +16647,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="8"/>
         <v>5.5499999999999883</v>
@@ -16671,7 +16673,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="8"/>
         <v>5.5999999999999881</v>
@@ -16697,7 +16699,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="8"/>
         <v>5.6499999999999879</v>
@@ -16723,7 +16725,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="8"/>
         <v>5.6999999999999877</v>
@@ -16749,7 +16751,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="8"/>
         <v>5.7499999999999876</v>
@@ -16775,7 +16777,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="8"/>
         <v>5.7999999999999874</v>
@@ -16801,7 +16803,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="8"/>
         <v>5.8499999999999872</v>
@@ -16827,7 +16829,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="8"/>
         <v>5.899999999999987</v>
@@ -16853,7 +16855,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="8"/>
         <v>5.9499999999999869</v>
@@ -16879,7 +16881,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="8"/>
         <v>5.9999999999999867</v>
@@ -16905,7 +16907,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="8"/>
         <v>6.0499999999999865</v>
@@ -16931,7 +16933,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="8"/>
         <v>6.0999999999999863</v>
@@ -16957,7 +16959,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="8"/>
         <v>6.1499999999999861</v>
@@ -16983,7 +16985,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="8"/>
         <v>6.199999999999986</v>
@@ -17009,7 +17011,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="8"/>
         <v>6.2499999999999858</v>
@@ -17035,7 +17037,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="8"/>
         <v>6.2999999999999856</v>
@@ -17061,7 +17063,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" si="8"/>
         <v>6.3499999999999854</v>
@@ -17087,7 +17089,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" si="8"/>
         <v>6.3999999999999853</v>
@@ -17113,7 +17115,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="8"/>
         <v>6.4499999999999851</v>
@@ -17139,7 +17141,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="8"/>
         <v>6.4999999999999849</v>
@@ -17165,7 +17167,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="8"/>
         <v>6.5499999999999847</v>
@@ -17191,7 +17193,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="8"/>
         <v>6.5999999999999845</v>
@@ -17217,7 +17219,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="8"/>
         <v>6.6499999999999844</v>
@@ -17243,7 +17245,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="8"/>
         <v>6.6999999999999842</v>
@@ -17269,7 +17271,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="8"/>
         <v>6.749999999999984</v>
@@ -17295,7 +17297,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="8"/>
         <v>6.7999999999999838</v>
@@ -17321,7 +17323,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="8"/>
         <v>6.8499999999999837</v>
@@ -17347,7 +17349,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="8"/>
         <v>6.8999999999999835</v>
@@ -17373,7 +17375,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="8"/>
         <v>6.9499999999999833</v>
@@ -17399,7 +17401,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="8"/>
         <v>6.9999999999999831</v>
@@ -17425,7 +17427,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="8"/>
         <v>7.0499999999999829</v>
@@ -17451,7 +17453,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="8"/>
         <v>7.0999999999999828</v>
@@ -17477,7 +17479,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="8"/>
         <v>7.1499999999999826</v>
@@ -17503,7 +17505,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="8"/>
         <v>7.1999999999999824</v>
@@ -17529,7 +17531,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="8"/>
         <v>7.2499999999999822</v>
@@ -17555,7 +17557,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="8"/>
         <v>7.2999999999999821</v>
@@ -17581,7 +17583,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="8"/>
         <v>7.3499999999999819</v>
@@ -17607,7 +17609,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="8"/>
         <v>7.3999999999999817</v>
@@ -17633,7 +17635,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="8"/>
         <v>7.4499999999999815</v>
@@ -17659,7 +17661,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="8"/>
         <v>7.4999999999999813</v>
@@ -17685,7 +17687,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="8"/>
         <v>7.5499999999999812</v>
@@ -17711,7 +17713,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="8"/>
         <v>7.599999999999981</v>
@@ -17737,7 +17739,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="8"/>
         <v>7.6499999999999808</v>
@@ -17763,7 +17765,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="8"/>
         <v>7.6999999999999806</v>
@@ -17789,7 +17791,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="8"/>
         <v>7.7499999999999805</v>
@@ -17815,7 +17817,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <f t="shared" si="8"/>
         <v>7.7999999999999803</v>
@@ -17841,7 +17843,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <f t="shared" si="8"/>
         <v>7.8499999999999801</v>
@@ -17867,7 +17869,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <f t="shared" si="8"/>
         <v>7.8999999999999799</v>
@@ -17893,7 +17895,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <f t="shared" si="8"/>
         <v>7.9499999999999797</v>
@@ -17919,7 +17921,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <f t="shared" si="8"/>
         <v>7.9999999999999796</v>
@@ -17945,7 +17947,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <f t="shared" si="8"/>
         <v>8.0499999999999794</v>
@@ -17971,7 +17973,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <f t="shared" si="8"/>
         <v>8.0999999999999801</v>
@@ -17997,7 +17999,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <f t="shared" si="8"/>
         <v>8.1499999999999808</v>
@@ -18023,7 +18025,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <f t="shared" si="8"/>
         <v>8.1999999999999815</v>
@@ -18049,7 +18051,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <f t="shared" si="8"/>
         <v>8.2499999999999822</v>
@@ -18075,7 +18077,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <f t="shared" si="8"/>
         <v>8.2999999999999829</v>
@@ -18101,7 +18103,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <f t="shared" si="8"/>
         <v>8.3499999999999837</v>
@@ -18127,7 +18129,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <f t="shared" si="8"/>
         <v>8.3999999999999844</v>
@@ -18153,7 +18155,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <f t="shared" si="8"/>
         <v>8.4499999999999851</v>
@@ -18179,7 +18181,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <f t="shared" si="8"/>
         <v>8.4999999999999858</v>
@@ -18205,7 +18207,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <f t="shared" si="8"/>
         <v>8.5499999999999865</v>
@@ -18231,7 +18233,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <f t="shared" si="8"/>
         <v>8.5999999999999872</v>
@@ -18257,7 +18259,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <f t="shared" si="8"/>
         <v>8.6499999999999879</v>
@@ -18283,7 +18285,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <f t="shared" si="8"/>
         <v>8.6999999999999886</v>
@@ -18309,7 +18311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <f t="shared" si="8"/>
         <v>8.7499999999999893</v>
@@ -18335,7 +18337,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <f t="shared" si="8"/>
         <v>8.7999999999999901</v>
@@ -18361,7 +18363,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <f t="shared" si="8"/>
         <v>8.8499999999999908</v>
@@ -18387,7 +18389,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <f t="shared" si="8"/>
         <v>8.8999999999999915</v>
@@ -18413,7 +18415,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="8"/>
         <v>8.9499999999999922</v>
@@ -18439,7 +18441,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="8"/>
         <v>8.9999999999999929</v>
@@ -18465,7 +18467,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="8"/>
         <v>9.0499999999999936</v>
@@ -18491,7 +18493,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="8"/>
         <v>9.0999999999999943</v>
@@ -18517,7 +18519,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="8"/>
         <v>9.149999999999995</v>
@@ -18543,7 +18545,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="8"/>
         <v>9.1999999999999957</v>
@@ -18569,7 +18571,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="8"/>
         <v>9.2499999999999964</v>
@@ -18595,7 +18597,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="8"/>
         <v>9.2999999999999972</v>
@@ -18621,7 +18623,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="8"/>
         <v>9.3499999999999979</v>
@@ -18647,7 +18649,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="8"/>
         <v>9.3999999999999986</v>
@@ -18673,7 +18675,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="8"/>
         <v>9.4499999999999993</v>
@@ -18699,7 +18701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="8"/>
         <v>9.5</v>
@@ -18725,7 +18727,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" si="8"/>
         <v>9.5500000000000007</v>
@@ -18751,7 +18753,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" si="8"/>
         <v>9.6000000000000014</v>
@@ -18777,7 +18779,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <f t="shared" si="8"/>
         <v>9.6500000000000021</v>
@@ -18803,7 +18805,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f t="shared" si="8"/>
         <v>9.7000000000000028</v>
@@ -18829,7 +18831,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <f t="shared" si="8"/>
         <v>9.7500000000000036</v>
@@ -18855,7 +18857,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <f t="shared" si="8"/>
         <v>9.8000000000000043</v>
@@ -18881,7 +18883,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="8"/>
         <v>9.850000000000005</v>
@@ -18907,7 +18909,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="8"/>
         <v>9.9000000000000057</v>
@@ -18933,7 +18935,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="8"/>
         <v>9.9500000000000064</v>
@@ -18959,7 +18961,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="8"/>
         <v>10.000000000000007</v>
@@ -18985,7 +18987,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="8"/>
         <v>10.050000000000008</v>
@@ -19011,7 +19013,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="8"/>
         <v>10.100000000000009</v>
@@ -19037,7 +19039,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <f t="shared" si="8"/>
         <v>10.150000000000009</v>
@@ -19063,7 +19065,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f t="shared" si="8"/>
         <v>10.20000000000001</v>
@@ -19089,7 +19091,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <f t="shared" si="8"/>
         <v>10.250000000000011</v>
@@ -19115,7 +19117,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <f t="shared" si="8"/>
         <v>10.300000000000011</v>
@@ -19141,7 +19143,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="8"/>
         <v>10.350000000000012</v>
@@ -19167,7 +19169,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="8"/>
         <v>10.400000000000013</v>
@@ -19193,7 +19195,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="8"/>
         <v>10.450000000000014</v>
@@ -19219,7 +19221,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="8"/>
         <v>10.500000000000014</v>
@@ -19245,7 +19247,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="8"/>
         <v>10.550000000000015</v>
@@ -19271,7 +19273,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="8"/>
         <v>10.600000000000016</v>
@@ -19297,7 +19299,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="8"/>
         <v>10.650000000000016</v>
@@ -19323,7 +19325,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" si="8"/>
         <v>10.700000000000017</v>
@@ -19349,7 +19351,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="8"/>
         <v>10.750000000000018</v>
@@ -19375,7 +19377,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="8"/>
         <v>10.800000000000018</v>
@@ -19401,7 +19403,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="8"/>
         <v>10.850000000000019</v>
@@ -19427,7 +19429,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="8"/>
         <v>10.90000000000002</v>
@@ -19453,7 +19455,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="8"/>
         <v>10.950000000000021</v>
@@ -19479,7 +19481,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="8"/>
         <v>11.000000000000021</v>
@@ -19505,7 +19507,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="8"/>
         <v>11.050000000000022</v>
@@ -19531,7 +19533,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <f t="shared" si="8"/>
         <v>11.100000000000023</v>
@@ -19557,7 +19559,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <f t="shared" si="8"/>
         <v>11.150000000000023</v>
@@ -19583,7 +19585,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f t="shared" si="8"/>
         <v>11.200000000000024</v>
@@ -19609,7 +19611,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f t="shared" si="8"/>
         <v>11.250000000000025</v>
@@ -19635,7 +19637,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f t="shared" si="8"/>
         <v>11.300000000000026</v>
@@ -19661,7 +19663,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <f t="shared" si="8"/>
         <v>11.350000000000026</v>
@@ -19687,7 +19689,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f t="shared" si="8"/>
         <v>11.400000000000027</v>
@@ -19713,7 +19715,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <f t="shared" si="8"/>
         <v>11.450000000000028</v>
@@ -19739,7 +19741,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <f t="shared" si="8"/>
         <v>11.500000000000028</v>
@@ -19765,7 +19767,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <f t="shared" si="8"/>
         <v>11.550000000000029</v>
@@ -19791,7 +19793,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <f t="shared" si="8"/>
         <v>11.60000000000003</v>
@@ -19817,7 +19819,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <f t="shared" si="8"/>
         <v>11.650000000000031</v>
@@ -19843,7 +19845,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <f t="shared" si="8"/>
         <v>11.700000000000031</v>
@@ -19869,7 +19871,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <f t="shared" si="8"/>
         <v>11.750000000000032</v>
@@ -19895,7 +19897,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <f t="shared" si="8"/>
         <v>11.800000000000033</v>
@@ -19921,7 +19923,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <f t="shared" si="8"/>
         <v>11.850000000000033</v>
@@ -19947,7 +19949,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <f t="shared" si="8"/>
         <v>11.900000000000034</v>
@@ -19973,7 +19975,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <f t="shared" si="8"/>
         <v>11.950000000000035</v>
@@ -19999,7 +20001,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <f t="shared" si="8"/>
         <v>12.000000000000036</v>
@@ -20025,7 +20027,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <f t="shared" si="8"/>
         <v>12.050000000000036</v>
@@ -20051,7 +20053,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <f t="shared" si="8"/>
         <v>12.100000000000037</v>
@@ -20077,7 +20079,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <f t="shared" si="8"/>
         <v>12.150000000000038</v>
@@ -20103,7 +20105,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <f t="shared" si="8"/>
         <v>12.200000000000038</v>
@@ -20129,7 +20131,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <f t="shared" si="8"/>
         <v>12.250000000000039</v>
@@ -20145,7 +20147,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <f t="shared" si="8"/>
         <v>12.30000000000004</v>
@@ -20161,7 +20163,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <f t="shared" si="8"/>
         <v>12.350000000000041</v>
@@ -20177,7 +20179,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <f t="shared" si="8"/>
         <v>12.400000000000041</v>
@@ -20193,7 +20195,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <f t="shared" si="8"/>
         <v>12.450000000000042</v>
@@ -20209,7 +20211,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <f t="shared" si="8"/>
         <v>12.500000000000043</v>
@@ -20222,10 +20224,10 @@
       </c>
       <c r="G319" s="1">
         <f>G17</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <f t="shared" si="8"/>
         <v>12.550000000000043</v>
@@ -20238,10 +20240,10 @@
       </c>
       <c r="G320" s="1">
         <f t="shared" ref="G320:G335" si="21">G$319</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <f t="shared" si="8"/>
         <v>12.600000000000044</v>
@@ -20254,10 +20256,10 @@
       </c>
       <c r="G321" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <f t="shared" si="8"/>
         <v>12.650000000000045</v>
@@ -20270,10 +20272,10 @@
       </c>
       <c r="G322" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <f t="shared" si="8"/>
         <v>12.700000000000045</v>
@@ -20286,10 +20288,10 @@
       </c>
       <c r="G323" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <f t="shared" si="8"/>
         <v>12.750000000000046</v>
@@ -20302,10 +20304,10 @@
       </c>
       <c r="G324" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <f t="shared" si="8"/>
         <v>12.800000000000047</v>
@@ -20318,10 +20320,10 @@
       </c>
       <c r="G325" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <f t="shared" si="8"/>
         <v>12.850000000000048</v>
@@ -20334,10 +20336,10 @@
       </c>
       <c r="G326" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <f t="shared" si="8"/>
         <v>12.900000000000048</v>
@@ -20350,10 +20352,10 @@
       </c>
       <c r="G327" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <f t="shared" si="8"/>
         <v>12.950000000000049</v>
@@ -20366,10 +20368,10 @@
       </c>
       <c r="G328" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <f t="shared" si="8"/>
         <v>13.00000000000005</v>
@@ -20382,10 +20384,10 @@
       </c>
       <c r="G329" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <f t="shared" si="8"/>
         <v>13.05000000000005</v>
@@ -20398,10 +20400,10 @@
       </c>
       <c r="G330" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <f t="shared" si="8"/>
         <v>13.100000000000051</v>
@@ -20414,10 +20416,10 @@
       </c>
       <c r="G331" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <f t="shared" si="8"/>
         <v>13.150000000000052</v>
@@ -20430,10 +20432,10 @@
       </c>
       <c r="G332" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <f t="shared" si="8"/>
         <v>13.200000000000053</v>
@@ -20446,10 +20448,10 @@
       </c>
       <c r="G333" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <f t="shared" si="8"/>
         <v>13.250000000000053</v>
@@ -20462,10 +20464,10 @@
       </c>
       <c r="G334" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <f t="shared" si="8"/>
         <v>13.300000000000054</v>
@@ -20478,676 +20480,718 @@
       </c>
       <c r="G335" s="1">
         <f t="shared" si="21"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="P4:AE18"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="M28:Q28"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="M32:Q32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M37:Q37"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="M38:Q38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="M40:Q40"/>
     <mergeCell ref="M82:R82"/>
     <mergeCell ref="C41:L41"/>
     <mergeCell ref="M41:Q41"/>
@@ -21161,48 +21205,6 @@
     <mergeCell ref="C46:L46"/>
     <mergeCell ref="M46:Q46"/>
     <mergeCell ref="M73:R73"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="M38:Q38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="M40:Q40"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M37:Q37"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="M32:Q32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="M33:Q33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="M28:Q28"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="P4:AE18"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -21217,19 +21219,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="2" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -21246,7 +21248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -21263,7 +21265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -21280,7 +21282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -21297,7 +21299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -21311,1014 +21313,1014 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
